--- a/curation/draft/package13/R13_BC_SDTM_QRS_HBI.xlsx
+++ b/curation/draft/package13/R13_BC_SDTM_QRS_HBI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdisc-my.sharepoint.com/personal/jchason_cdisc_org/Documents/Work/CDISC/Biomedical Concepts/BCs for HBI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{8DFC2484-C4C9-4149-B582-A83A601A3F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0551617C-4972-48DA-9B9A-4C1007B60F94}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC3DBAA-EC72-4D62-A8BE-64C88963765C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_HBI" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BC_HBI!$A$1:$S$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SDTM_HBI!$A$1:$AG$95</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="217">
   <si>
     <t>package_date</t>
   </si>
@@ -689,6 +689,9 @@
   </si>
   <si>
     <t>HBI01-Complication: Anal Fissures</t>
+  </si>
+  <si>
+    <t>CCCAT</t>
   </si>
 </sst>
 </file>
@@ -1076,36 +1079,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.53515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="36.53515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.84375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.15234375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="16" style="4" customWidth="1"/>
-    <col min="6" max="6" width="45.15234375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.15234375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.53515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="68.15234375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.53515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="15.84375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="7.84375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.3046875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="17.69140625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="22.84375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="10.53515625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="46.3046875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="17.84375" style="4" customWidth="1"/>
-    <col min="19" max="19" width="12.3046875" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="40.69140625" style="4"/>
+    <col min="6" max="6" width="45.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="68.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="22.85546875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="46.28515625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="4" customWidth="1"/>
+    <col min="20" max="16384" width="40.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>127</v>
       </c>
@@ -1190,7 +1193,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>127</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>127</v>
       </c>
@@ -1257,7 +1260,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>127</v>
       </c>
@@ -1301,7 +1304,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>127</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>127</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>127</v>
       </c>
@@ -1430,7 +1433,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>127</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>127</v>
       </c>
@@ -1518,7 +1521,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>127</v>
       </c>
@@ -1562,7 +1565,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>127</v>
       </c>
@@ -1603,7 +1606,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>127</v>
       </c>
@@ -1647,7 +1650,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>127</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>127</v>
       </c>
@@ -1729,7 +1732,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>127</v>
       </c>
@@ -1773,7 +1776,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>127</v>
       </c>
@@ -1814,7 +1817,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>127</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>127</v>
       </c>
@@ -1902,7 +1905,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>127</v>
       </c>
@@ -1946,7 +1949,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>127</v>
       </c>
@@ -1990,7 +1993,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>127</v>
       </c>
@@ -2031,7 +2034,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>127</v>
       </c>
@@ -2075,7 +2078,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>127</v>
       </c>
@@ -2119,7 +2122,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>127</v>
       </c>
@@ -2163,7 +2166,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>127</v>
       </c>
@@ -2204,7 +2207,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>127</v>
       </c>
@@ -2248,7 +2251,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>127</v>
       </c>
@@ -2292,7 +2295,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>127</v>
       </c>
@@ -2336,7 +2339,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>127</v>
       </c>
@@ -2377,7 +2380,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>127</v>
       </c>
@@ -2421,7 +2424,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>127</v>
       </c>
@@ -2465,7 +2468,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>127</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>127</v>
       </c>
@@ -2550,7 +2553,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>127</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>127</v>
       </c>
@@ -2638,7 +2641,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>127</v>
       </c>
@@ -2682,7 +2685,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>127</v>
       </c>
@@ -2723,7 +2726,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="102" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>127</v>
       </c>
@@ -2767,7 +2770,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="102" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>127</v>
       </c>
@@ -2811,7 +2814,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="102" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>127</v>
       </c>
@@ -2855,7 +2858,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="102" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>127</v>
       </c>
@@ -2896,7 +2899,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>127</v>
       </c>
@@ -2940,7 +2943,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>127</v>
       </c>
@@ -2984,7 +2987,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>127</v>
       </c>
@@ -3028,7 +3031,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>127</v>
       </c>
@@ -3069,7 +3072,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>127</v>
       </c>
@@ -3113,7 +3116,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>127</v>
       </c>
@@ -3157,7 +3160,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>127</v>
       </c>
@@ -3201,7 +3204,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>127</v>
       </c>
@@ -3242,7 +3245,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>127</v>
       </c>
@@ -3286,7 +3289,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>127</v>
       </c>
@@ -3330,7 +3333,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>127</v>
       </c>
@@ -3374,7 +3377,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>127</v>
       </c>
@@ -3415,7 +3418,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>127</v>
       </c>
@@ -3456,7 +3459,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>127</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>127</v>
       </c>
@@ -3541,7 +3544,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>127</v>
       </c>
@@ -3593,46 +3596,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9496C4D5-5947-423F-AB5C-A7EF43995234}">
   <dimension ref="A1:AG95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.53515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.69140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.84375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.15234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="4" customWidth="1"/>
     <col min="7" max="7" width="14" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.3046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.53515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.69140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.53515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.15234375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="26.69140625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="16.15234375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="4" customWidth="1"/>
     <col min="15" max="15" width="12" style="4" customWidth="1"/>
-    <col min="16" max="16" width="16.15234375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="37.53515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.69140625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="30.69140625" style="4" customWidth="1"/>
-    <col min="21" max="21" width="19.15234375" style="4" customWidth="1"/>
-    <col min="22" max="22" width="11.15234375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="37.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.7109375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="30.7109375" style="4" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" style="4" customWidth="1"/>
     <col min="23" max="23" width="13" style="4" customWidth="1"/>
-    <col min="24" max="24" width="7.84375" style="4" customWidth="1"/>
-    <col min="25" max="25" width="9.3046875" style="4" customWidth="1"/>
+    <col min="24" max="24" width="7.85546875" style="4" customWidth="1"/>
+    <col min="25" max="25" width="9.28515625" style="4" customWidth="1"/>
     <col min="26" max="26" width="18" style="4" customWidth="1"/>
-    <col min="27" max="27" width="19.69140625" style="4" customWidth="1"/>
-    <col min="28" max="28" width="17.84375" style="4" customWidth="1"/>
-    <col min="29" max="29" width="12.3828125" style="4" customWidth="1"/>
-    <col min="30" max="30" width="15.53515625" style="4" customWidth="1"/>
-    <col min="31" max="31" width="15.15234375" style="4" customWidth="1"/>
+    <col min="27" max="27" width="19.7109375" style="4" customWidth="1"/>
+    <col min="28" max="28" width="17.85546875" style="4" customWidth="1"/>
+    <col min="29" max="29" width="12.42578125" style="4" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" style="4" customWidth="1"/>
+    <col min="31" max="31" width="15.140625" style="4" customWidth="1"/>
     <col min="32" max="32" width="14" style="4" customWidth="1"/>
-    <col min="33" max="33" width="16.15234375" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="40.69140625" style="4"/>
+    <col min="33" max="33" width="16.140625" style="4" customWidth="1"/>
+    <col min="34" max="16384" width="40.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3733,7 +3738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>127</v>
       </c>
@@ -3804,7 +3809,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>127</v>
       </c>
@@ -3878,7 +3883,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>127</v>
       </c>
@@ -3910,7 +3915,7 @@
         <v>150</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>120</v>
@@ -3952,7 +3957,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>127</v>
       </c>
@@ -4026,7 +4031,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>127</v>
       </c>
@@ -4097,7 +4102,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>127</v>
       </c>
@@ -4168,7 +4173,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>127</v>
       </c>
@@ -4224,7 +4229,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>127</v>
       </c>
@@ -4283,7 +4288,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>127</v>
       </c>
@@ -4354,7 +4359,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>127</v>
       </c>
@@ -4428,7 +4433,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>127</v>
       </c>
@@ -4460,7 +4465,7 @@
         <v>150</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>120</v>
@@ -4502,7 +4507,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>127</v>
       </c>
@@ -4576,7 +4581,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>127</v>
       </c>
@@ -4647,7 +4652,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>127</v>
       </c>
@@ -4718,7 +4723,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>127</v>
       </c>
@@ -4774,7 +4779,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>127</v>
       </c>
@@ -4833,7 +4838,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>127</v>
       </c>
@@ -4904,7 +4909,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>127</v>
       </c>
@@ -4978,7 +4983,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>127</v>
       </c>
@@ -5010,7 +5015,7 @@
         <v>150</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>120</v>
@@ -5052,7 +5057,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>127</v>
       </c>
@@ -5120,7 +5125,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>127</v>
       </c>
@@ -5185,7 +5190,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>127</v>
       </c>
@@ -5250,7 +5255,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>127</v>
       </c>
@@ -5306,7 +5311,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>127</v>
       </c>
@@ -5365,7 +5370,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>127</v>
       </c>
@@ -5436,7 +5441,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>127</v>
       </c>
@@ -5510,7 +5515,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>127</v>
       </c>
@@ -5542,7 +5547,7 @@
         <v>150</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>120</v>
@@ -5584,7 +5589,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>127</v>
       </c>
@@ -5658,7 +5663,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>127</v>
       </c>
@@ -5729,7 +5734,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>127</v>
       </c>
@@ -5800,7 +5805,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>127</v>
       </c>
@@ -5856,7 +5861,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>127</v>
       </c>
@@ -5927,7 +5932,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>127</v>
       </c>
@@ -6001,7 +6006,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>127</v>
       </c>
@@ -6033,7 +6038,7 @@
         <v>150</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>120</v>
@@ -6075,7 +6080,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>127</v>
       </c>
@@ -6149,7 +6154,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>127</v>
       </c>
@@ -6220,7 +6225,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>127</v>
       </c>
@@ -6291,7 +6296,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>127</v>
       </c>
@@ -6347,7 +6352,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>127</v>
       </c>
@@ -6418,7 +6423,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>127</v>
       </c>
@@ -6492,7 +6497,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>127</v>
       </c>
@@ -6524,7 +6529,7 @@
         <v>150</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="P42" s="4" t="s">
         <v>120</v>
@@ -6566,7 +6571,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>127</v>
       </c>
@@ -6640,7 +6645,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>127</v>
       </c>
@@ -6711,7 +6716,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>127</v>
       </c>
@@ -6782,7 +6787,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>127</v>
       </c>
@@ -6838,7 +6843,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>127</v>
       </c>
@@ -6909,7 +6914,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>127</v>
       </c>
@@ -6983,7 +6988,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>127</v>
       </c>
@@ -7015,7 +7020,7 @@
         <v>150</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>120</v>
@@ -7057,7 +7062,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>127</v>
       </c>
@@ -7131,7 +7136,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>127</v>
       </c>
@@ -7202,7 +7207,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>127</v>
       </c>
@@ -7273,7 +7278,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>127</v>
       </c>
@@ -7329,7 +7334,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>127</v>
       </c>
@@ -7400,7 +7405,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>127</v>
       </c>
@@ -7474,7 +7479,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>127</v>
       </c>
@@ -7506,7 +7511,7 @@
         <v>150</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="P56" s="4" t="s">
         <v>120</v>
@@ -7548,7 +7553,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>127</v>
       </c>
@@ -7622,7 +7627,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>127</v>
       </c>
@@ -7693,7 +7698,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>127</v>
       </c>
@@ -7764,7 +7769,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>127</v>
       </c>
@@ -7820,7 +7825,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>127</v>
       </c>
@@ -7891,7 +7896,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>127</v>
       </c>
@@ -7965,7 +7970,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>127</v>
       </c>
@@ -7997,7 +8002,7 @@
         <v>150</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="P63" s="4" t="s">
         <v>120</v>
@@ -8039,7 +8044,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:32" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>127</v>
       </c>
@@ -8113,7 +8118,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:32" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>127</v>
       </c>
@@ -8184,7 +8189,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>127</v>
       </c>
@@ -8255,7 +8260,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>127</v>
       </c>
@@ -8311,7 +8316,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>127</v>
       </c>
@@ -8382,7 +8387,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>127</v>
       </c>
@@ -8456,7 +8461,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>127</v>
       </c>
@@ -8488,7 +8493,7 @@
         <v>150</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="P70" s="4" t="s">
         <v>120</v>
@@ -8530,7 +8535,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>127</v>
       </c>
@@ -8604,7 +8609,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>127</v>
       </c>
@@ -8675,7 +8680,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>127</v>
       </c>
@@ -8746,7 +8751,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>127</v>
       </c>
@@ -8802,7 +8807,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>127</v>
       </c>
@@ -8873,7 +8878,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>127</v>
       </c>
@@ -8947,7 +8952,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>127</v>
       </c>
@@ -8979,7 +8984,7 @@
         <v>150</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="P77" s="4" t="s">
         <v>120</v>
@@ -9021,7 +9026,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>127</v>
       </c>
@@ -9095,7 +9100,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>127</v>
       </c>
@@ -9166,7 +9171,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>127</v>
       </c>
@@ -9237,7 +9242,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>127</v>
       </c>
@@ -9293,7 +9298,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>127</v>
       </c>
@@ -9364,7 +9369,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>127</v>
       </c>
@@ -9438,7 +9443,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>127</v>
       </c>
@@ -9470,7 +9475,7 @@
         <v>150</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="P84" s="4" t="s">
         <v>120</v>
@@ -9512,7 +9517,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>127</v>
       </c>
@@ -9586,7 +9591,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>127</v>
       </c>
@@ -9657,7 +9662,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>127</v>
       </c>
@@ -9728,7 +9733,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>127</v>
       </c>
@@ -9784,7 +9789,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>127</v>
       </c>
@@ -9855,7 +9860,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>127</v>
       </c>
@@ -9929,7 +9934,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>127</v>
       </c>
@@ -9961,7 +9966,7 @@
         <v>150</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="P91" s="4" t="s">
         <v>120</v>
@@ -10003,7 +10008,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>127</v>
       </c>
@@ -10071,7 +10076,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>127</v>
       </c>
@@ -10136,7 +10141,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>127</v>
       </c>
@@ -10201,7 +10206,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>127</v>
       </c>
